--- a/CashFlow/EW_cashflow.xlsx
+++ b/CashFlow/EW_cashflow.xlsx
@@ -758,19 +758,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>2312500000.0</v>
+        <v>682600000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>2972000000.0</v>
+        <v>-120600000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>2148500000.0</v>
+        <v>-139700000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1353500000.0</v>
+        <v>-142700000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>586000000.0</v>
+        <v>-111200000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-105400000.0</v>
@@ -885,19 +885,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>503700000.0</v>
+        <v>209900000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>665000000.0</v>
+        <v>-84500000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>513700000.0</v>
+        <v>-8200000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>432100000.0</v>
+        <v>-8200000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>510700000.0</v>
+        <v>214300000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>116500000.0</v>
